--- a/exploration/old_validation_dataset.xlsx
+++ b/exploration/old_validation_dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unitc-my.sharepoint.com/personal/zxowg46_s-cloud_uni-tuebingen_de/Documents/Thesis/esg_extraction/exploration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{E630DF4D-4391-4B8D-8777-EEE05B8D283F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{470A8F31-A534-40A2-A178-65DB38F2B6A0}"/>
+  <xr:revisionPtr revIDLastSave="83" documentId="13_ncr:1_{E630DF4D-4391-4B8D-8777-EEE05B8D283F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC2ADF32-AA6C-4D71-8ABF-5E7FF3241F31}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14505" yWindow="-9120" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S1_Retrieval" sheetId="1" r:id="rId1"/>
@@ -7970,6 +7970,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8238,9 +8242,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D283"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K104" sqref="K104"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -8517,14 +8521,14 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" ht="25.9" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>4</v>
       </c>
       <c r="B20" t="s">
         <v>94</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="4" t="s">
         <v>84</v>
       </c>
       <c r="D20" s="3">
@@ -8559,14 +8563,14 @@
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" ht="409.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>4</v>
       </c>
       <c r="B23" t="s">
         <v>79</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="4" t="s">
         <v>113</v>
       </c>
       <c r="D23" s="3">
@@ -8643,7 +8647,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>120</v>
       </c>
@@ -8685,14 +8689,14 @@
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" ht="285" hidden="1" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>4</v>
       </c>
       <c r="B32" t="s">
         <v>5</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D32" s="3">
@@ -8713,7 +8717,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -8727,7 +8731,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -8783,7 +8787,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>120</v>
       </c>
@@ -8923,7 +8927,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>4</v>
       </c>
@@ -8937,7 +8941,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>4</v>
       </c>
@@ -9007,7 +9011,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>120</v>
       </c>
@@ -9021,21 +9025,21 @@
         <v>112</v>
       </c>
     </row>
-    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:4" ht="409.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>120</v>
       </c>
       <c r="B56" t="s">
         <v>111</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="4" t="s">
         <v>215</v>
       </c>
       <c r="D56" s="3">
         <v>112</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>120</v>
       </c>
@@ -9091,7 +9095,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>120</v>
       </c>
@@ -9105,7 +9109,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>120</v>
       </c>
@@ -9161,7 +9165,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>120</v>
       </c>
@@ -9175,7 +9179,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>120</v>
       </c>
@@ -9189,7 +9193,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>120</v>
       </c>
@@ -9203,7 +9207,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>120</v>
       </c>
@@ -9259,7 +9263,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>120</v>
       </c>
@@ -9273,14 +9277,14 @@
         <v>161</v>
       </c>
     </row>
-    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:4" ht="409.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>4</v>
       </c>
       <c r="B74" t="s">
         <v>111</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D74" s="3">
@@ -9343,14 +9347,14 @@
         <v>173</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:4" ht="409.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>4</v>
       </c>
       <c r="B79" t="s">
         <v>94</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="4" t="s">
         <v>88</v>
       </c>
       <c r="D79" s="3">
@@ -9371,14 +9375,14 @@
         <v>174</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:4" ht="171" hidden="1" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>4</v>
       </c>
       <c r="B81" t="s">
         <v>94</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="4" t="s">
         <v>112</v>
       </c>
       <c r="D81" s="3">
@@ -9413,28 +9417,28 @@
         <v>175</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:4" ht="409.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>4</v>
       </c>
       <c r="B84" t="s">
         <v>94</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="4" t="s">
         <v>80</v>
       </c>
       <c r="D84" s="3">
         <v>175</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:4" ht="57" hidden="1" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>4</v>
       </c>
       <c r="B85" t="s">
         <v>94</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="4" t="s">
         <v>81</v>
       </c>
       <c r="D85" s="3">
@@ -9511,14 +9515,14 @@
         <v>176</v>
       </c>
     </row>
-    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:4" ht="409.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>4</v>
       </c>
       <c r="B91" t="s">
         <v>5</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="4" t="s">
         <v>57</v>
       </c>
       <c r="D91" s="3">
@@ -9693,21 +9697,21 @@
         <v>179</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:4" ht="409.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>4</v>
       </c>
       <c r="B104" t="s">
         <v>94</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C104" s="4" t="s">
         <v>91</v>
       </c>
       <c r="D104" s="3">
         <v>179</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>4</v>
       </c>
@@ -9735,14 +9739,14 @@
         <v>180</v>
       </c>
     </row>
-    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:4" ht="409.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>4</v>
       </c>
       <c r="B107" t="s">
         <v>5</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C107" s="4" t="s">
         <v>52</v>
       </c>
       <c r="D107" s="3">
@@ -9777,14 +9781,14 @@
         <v>180</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:4" ht="409.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>4</v>
       </c>
       <c r="B110" t="s">
         <v>94</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C110" s="4" t="s">
         <v>93</v>
       </c>
       <c r="D110" s="3">
@@ -9805,14 +9809,14 @@
         <v>180</v>
       </c>
     </row>
-    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:4" ht="409.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>4</v>
       </c>
       <c r="B112" t="s">
         <v>5</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C112" s="4" t="s">
         <v>53</v>
       </c>
       <c r="D112" s="3">
@@ -9847,28 +9851,28 @@
         <v>182</v>
       </c>
     </row>
-    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:4" ht="242.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>4</v>
       </c>
       <c r="B115" t="s">
         <v>8</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C115" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D115" s="3">
         <v>182</v>
       </c>
     </row>
-    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:4" ht="409.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>4</v>
       </c>
       <c r="B116" t="s">
         <v>5</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C116" s="4" t="s">
         <v>58</v>
       </c>
       <c r="D116" s="3">
@@ -9903,14 +9907,14 @@
         <v>182</v>
       </c>
     </row>
-    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:4" ht="409.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>4</v>
       </c>
       <c r="B119" t="s">
         <v>5</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C119" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D119" s="3">
@@ -9959,14 +9963,14 @@
         <v>183</v>
       </c>
     </row>
-    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:4" ht="409.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>4</v>
       </c>
       <c r="B123" t="s">
         <v>8</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C123" s="4" t="s">
         <v>42</v>
       </c>
       <c r="D123" s="3">
@@ -10057,7 +10061,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
         <v>120</v>
       </c>
@@ -10071,7 +10075,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
         <v>120</v>
       </c>
@@ -10127,7 +10131,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
         <v>120</v>
       </c>
@@ -10141,7 +10145,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
         <v>120</v>
       </c>
@@ -10155,21 +10159,21 @@
         <v>206</v>
       </c>
     </row>
-    <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:4" ht="409.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
         <v>120</v>
       </c>
       <c r="B137" t="s">
         <v>35</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C137" s="4" t="s">
         <v>146</v>
       </c>
       <c r="D137" s="3">
         <v>207</v>
       </c>
     </row>
-    <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
         <v>120</v>
       </c>
@@ -10211,7 +10215,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
         <v>120</v>
       </c>
@@ -10239,28 +10243,28 @@
         <v>210</v>
       </c>
     </row>
-    <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:4" ht="409.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
         <v>4</v>
       </c>
       <c r="B143" t="s">
         <v>8</v>
       </c>
-      <c r="C143" t="s">
+      <c r="C143" s="4" t="s">
         <v>43</v>
       </c>
       <c r="D143" s="3">
         <v>210</v>
       </c>
     </row>
-    <row r="144" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:4" ht="409.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
         <v>4</v>
       </c>
       <c r="B144" t="s">
         <v>5</v>
       </c>
-      <c r="C144" t="s">
+      <c r="C144" s="4" t="s">
         <v>51</v>
       </c>
       <c r="D144" s="3">
@@ -10309,7 +10313,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="148" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
         <v>120</v>
       </c>
@@ -10337,14 +10341,14 @@
         <v>212</v>
       </c>
     </row>
-    <row r="150" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:4" ht="409.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
         <v>120</v>
       </c>
       <c r="B150" t="s">
         <v>8</v>
       </c>
-      <c r="C150" t="s">
+      <c r="C150" s="4" t="s">
         <v>176</v>
       </c>
       <c r="D150" s="3">
@@ -10393,14 +10397,14 @@
         <v>213</v>
       </c>
     </row>
-    <row r="154" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:4" ht="299.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
         <v>120</v>
       </c>
       <c r="B154" t="s">
         <v>8</v>
       </c>
-      <c r="C154" t="s">
+      <c r="C154" s="4" t="s">
         <v>165</v>
       </c>
       <c r="D154" s="3">
@@ -10477,7 +10481,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
         <v>4</v>
       </c>
@@ -10505,14 +10509,14 @@
         <v>219</v>
       </c>
     </row>
-    <row r="162" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:4" ht="409.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
         <v>120</v>
       </c>
       <c r="B162" t="s">
         <v>8</v>
       </c>
-      <c r="C162" t="s">
+      <c r="C162" s="4" t="s">
         <v>153</v>
       </c>
       <c r="D162" s="3">
@@ -10645,7 +10649,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="172" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
         <v>120</v>
       </c>
@@ -10659,7 +10663,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="173" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
         <v>120</v>
       </c>
@@ -10673,7 +10677,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="174" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
         <v>120</v>
       </c>
@@ -10687,7 +10691,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="175" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
         <v>120</v>
       </c>
@@ -10715,7 +10719,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
         <v>120</v>
       </c>
@@ -10827,21 +10831,21 @@
         <v>262</v>
       </c>
     </row>
-    <row r="185" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:4" ht="409.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A185" t="s">
         <v>4</v>
       </c>
       <c r="B185" t="s">
         <v>35</v>
       </c>
-      <c r="C185" t="s">
+      <c r="C185" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D185" s="3">
         <v>269</v>
       </c>
     </row>
-    <row r="186" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
         <v>120</v>
       </c>
@@ -10897,7 +10901,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="190" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A190" t="s">
         <v>120</v>
       </c>
@@ -10995,7 +10999,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="A197" t="s">
         <v>120</v>
       </c>
@@ -11135,14 +11139,14 @@
         <v>542</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:4" ht="409.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A207" t="s">
         <v>4</v>
       </c>
       <c r="B207" t="s">
         <v>94</v>
       </c>
-      <c r="C207" t="s">
+      <c r="C207" s="4" t="s">
         <v>89</v>
       </c>
       <c r="D207" s="3" t="s">
@@ -11261,14 +11265,14 @@
         <v>37</v>
       </c>
     </row>
-    <row r="216" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:4" ht="409.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A216" t="s">
         <v>4</v>
       </c>
       <c r="B216" t="s">
         <v>8</v>
       </c>
-      <c r="C216" t="s">
+      <c r="C216" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D216" s="3" t="s">
@@ -11289,7 +11293,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="218" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A218" t="s">
         <v>120</v>
       </c>
@@ -11303,7 +11307,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="219" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A219" t="s">
         <v>120</v>
       </c>
@@ -11324,7 +11328,7 @@
       <c r="B220" t="s">
         <v>8</v>
       </c>
-      <c r="C220" t="s">
+      <c r="C220" s="4" t="s">
         <v>160</v>
       </c>
       <c r="D220" s="3" t="s">
@@ -11975,7 +11979,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="A267" t="s">
         <v>237</v>
       </c>
@@ -11989,7 +11993,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="A268" t="s">
         <v>237</v>
       </c>
@@ -12003,7 +12007,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="A269" t="s">
         <v>237</v>
       </c>
@@ -12017,7 +12021,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="A270" t="s">
         <v>237</v>
       </c>
@@ -12215,9 +12219,14 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:D283" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="SchneiderElectric_2024"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="1">
       <filters>
-        <filter val="S1_B"/>
+        <filter val="S1_A"/>
       </filters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D222">
@@ -12234,9 +12243,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEF936B0-06A1-4D6F-B394-60C114961257}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
